--- a/data/trans_orig/P64S_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64S_2023_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3568FD96-BEFC-4A10-808F-266EF3F99BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4427C891-9A1C-4549-BEB8-5ECB78531D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A532BBBD-A9E0-46C1-8605-C3F5FFF4FE23}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B2A97148-3AAD-4844-9EF6-DE2B84CAE468}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="401">
   <si>
     <t>Población según el modo de desplazamiento desde su casa al centro de trabajo/estudios en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Bicileta y Otros medios</t>
@@ -77,1246 +77,1165 @@
     <t>0%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>Andando y en bicicleta</t>
+  </si>
+  <si>
+    <t>Andando y Vehículo particular</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>Andando y Transporte público</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>Andando y No realiza trayectos</t>
+  </si>
+  <si>
+    <t>Vehículo particular y No realiza trayectos</t>
+  </si>
+  <si>
+    <t>En bicicleta y Vehículo particular</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>En bicicleta y transporte público</t>
+  </si>
+  <si>
+    <t>Vehículo particular y transporte público</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Vehículo particular y Otros medios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>No realiza trayectos</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>Otros medios</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Transporte público</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>Vehículo particular</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>En bicicleta</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Andando</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>Andando y en bicicleta</t>
-  </si>
-  <si>
-    <t>Andando y Vehículo particular</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>Andando y Transporte público</t>
-  </si>
-  <si>
-    <t>Andando y No realiza trayectos</t>
-  </si>
-  <si>
-    <t>Vehículo particular y No realiza trayectos</t>
-  </si>
-  <si>
-    <t>En bicicleta y Vehículo particular</t>
-  </si>
-  <si>
-    <t>En bicicleta y transporte público</t>
-  </si>
-  <si>
-    <t>Vehículo particular y transporte público</t>
-  </si>
-  <si>
-    <t>Vehículo particular y Otros medios</t>
-  </si>
-  <si>
-    <t>No realiza trayectos</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>Otros medios</t>
-  </si>
-  <si>
-    <t>Transporte público</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>Vehículo particular</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>En bicicleta</t>
-  </si>
-  <si>
-    <t>Andando</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1731,8 +1650,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709D095F-B0D9-4DD5-B4FF-8F5FD79931AE}">
-  <dimension ref="A1:Q106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5D93C5-5984-4778-BA19-DC9104305499}">
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1951,10 +1870,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>5464</v>
+        <v>33219</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -1966,10 +1885,10 @@
         <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>2352</v>
+        <v>23004</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -1981,10 +1900,10 @@
         <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="N6" s="7">
-        <v>7816</v>
+        <v>56223</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>24</v>
@@ -2002,55 +1921,55 @@
         <v>27</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2877</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>5457</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2101,7 +2020,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2152,22 +2071,22 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2185,25 +2104,25 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2254,175 +2173,175 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1831</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>5578</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2999</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>9413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>1291</v>
+        <v>12034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N14" s="7">
-        <v>1291</v>
+        <v>21447</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2440,25 +2359,25 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2476,106 +2395,106 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>633</v>
+        <v>1399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>633</v>
+        <v>1399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D17" s="7">
-        <v>41464</v>
+        <v>232289</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="I17" s="7">
-        <v>21510</v>
+        <v>143622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>68</v>
+        <v>440</v>
       </c>
       <c r="N17" s="7">
-        <v>62975</v>
+        <v>375910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2593,70 +2512,70 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>3848</v>
+        <v>47066</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I19" s="7">
-        <v>19308</v>
+        <v>72656</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="N19" s="7">
-        <v>23156</v>
+        <v>119723</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,72 +2584,72 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="D20" s="7">
-        <v>50776</v>
+        <v>333075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
-        <v>71</v>
+        <v>412</v>
       </c>
       <c r="I20" s="7">
-        <v>45094</v>
+        <v>258065</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
-        <v>121</v>
+        <v>750</v>
       </c>
       <c r="N20" s="7">
-        <v>95870</v>
+        <v>591139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2745,22 +2664,22 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2796,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2811,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,49 +2739,49 @@
         <v>17</v>
       </c>
       <c r="C23" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>28842</v>
+        <v>27039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I23" s="7">
-        <v>22103</v>
+        <v>46940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="N23" s="7">
-        <v>50945</v>
+        <v>73979</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,106 +2790,106 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>3044</v>
+        <v>8025</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>3393</v>
+        <v>9796</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N24" s="7">
-        <v>6438</v>
+        <v>17821</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>2635</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2985,58 +2904,58 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>894</v>
+        <v>1875</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3051,28 +2970,28 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>894</v>
+        <v>1875</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -3087,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3102,7 +3021,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3117,181 +3036,181 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D29" s="7">
-        <v>4554</v>
+        <v>16029</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>2171</v>
+        <v>7629</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N29" s="7">
-        <v>6725</v>
+        <v>23659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>2961</v>
+        <v>3598</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>686</v>
+        <v>1161</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="M30" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>3648</v>
+        <v>4759</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C31" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7">
-        <v>10470</v>
+        <v>14759</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="H31" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="7">
-        <v>11505</v>
+        <v>9136</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="M31" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N31" s="7">
-        <v>21976</v>
+        <v>23895</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>750</v>
+        <v>4618</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3306,226 +3225,226 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>750</v>
+        <v>4618</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>8056</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I33" s="7">
-        <v>920</v>
+        <v>11777</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="M33" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="N33" s="7">
-        <v>920</v>
+        <v>19833</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C34" s="7">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="D34" s="7">
-        <v>193816</v>
+        <v>626375</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H34" s="7">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="I34" s="7">
-        <v>130609</v>
+        <v>203646</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="M34" s="7">
-        <v>372</v>
+        <v>639</v>
       </c>
       <c r="N34" s="7">
-        <v>324426</v>
+        <v>830020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>161</v>
+        <v>3737</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M35" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N35" s="7">
-        <v>161</v>
+        <v>4565</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C36" s="7">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D36" s="7">
-        <v>47223</v>
+        <v>89273</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="H36" s="7">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="I36" s="7">
-        <v>58235</v>
+        <v>108460</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="N36" s="7">
-        <v>105459</v>
+        <v>197732</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,72 +3453,72 @@
         <v>3</v>
       </c>
       <c r="C37" s="7">
-        <v>288</v>
+        <v>529</v>
       </c>
       <c r="D37" s="7">
-        <v>292717</v>
+        <v>805484</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H37" s="7">
-        <v>341</v>
+        <v>596</v>
       </c>
       <c r="I37" s="7">
-        <v>229623</v>
+        <v>400881</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M37" s="7">
-        <v>629</v>
+        <v>1125</v>
       </c>
       <c r="N37" s="7">
-        <v>522340</v>
+        <v>1206364</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3614,22 +3533,22 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,37 +3569,37 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,49 +3608,49 @@
         <v>17</v>
       </c>
       <c r="C40" s="7">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D40" s="7">
-        <v>28663</v>
+        <v>10418</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="H40" s="7">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I40" s="7">
-        <v>51108</v>
+        <v>17545</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="M40" s="7">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="N40" s="7">
-        <v>79771</v>
+        <v>27963</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,106 +3659,106 @@
         <v>27</v>
       </c>
       <c r="C41" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D41" s="7">
-        <v>8855</v>
+        <v>3220</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="H41" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I41" s="7">
-        <v>11853</v>
+        <v>6635</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="M41" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N41" s="7">
-        <v>20708</v>
+        <v>9855</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>1821</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="H42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M42" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>2630</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3854,58 +3773,58 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="7">
-        <v>2</v>
-      </c>
-      <c r="I43" s="7">
-        <v>841</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="M43" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>841</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>1735</v>
+        <v>1141</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3920,28 +3839,28 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>1735</v>
+        <v>1141</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -3956,23 +3875,23 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
@@ -3986,415 +3905,415 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C46" s="7">
+        <v>7</v>
+      </c>
+      <c r="D46" s="7">
+        <v>7778</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="7">
         <v>15</v>
       </c>
-      <c r="D46" s="7">
-        <v>18602</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H46" s="7">
-        <v>10</v>
-      </c>
       <c r="I46" s="7">
-        <v>9269</v>
+        <v>11270</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="M46" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N46" s="7">
-        <v>27870</v>
+        <v>19048</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H47" s="7">
         <v>3</v>
       </c>
-      <c r="D47" s="7">
-        <v>3604</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
       <c r="I47" s="7">
-        <v>1207</v>
+        <v>2847</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="M47" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" s="7">
-        <v>4811</v>
+        <v>2847</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C48" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" s="7">
-        <v>14560</v>
+        <v>9570</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H48" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I48" s="7">
-        <v>10714</v>
+        <v>7994</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M48" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N48" s="7">
-        <v>25274</v>
+        <v>17564</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49" s="7">
-        <v>4762</v>
+        <v>2341</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="M49" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N49" s="7">
-        <v>4762</v>
+        <v>2502</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C50" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D50" s="7">
-        <v>9492</v>
+        <v>6384</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="H50" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I50" s="7">
-        <v>13715</v>
+        <v>10307</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="M50" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N50" s="7">
-        <v>23207</v>
+        <v>16690</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C51" s="7">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="D51" s="7">
-        <v>442742</v>
+        <v>269437</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="H51" s="7">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="I51" s="7">
-        <v>221284</v>
+        <v>214771</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="M51" s="7">
-        <v>639</v>
+        <v>505</v>
       </c>
       <c r="N51" s="7">
-        <v>664026</v>
+        <v>484207</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C52" s="7">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2265</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="7">
         <v>5</v>
       </c>
-      <c r="D52" s="7">
-        <v>4024</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H52" s="7">
-        <v>2</v>
-      </c>
       <c r="I52" s="7">
-        <v>944</v>
+        <v>1301</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="M52" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N52" s="7">
-        <v>4968</v>
+        <v>3566</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C53" s="7">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D53" s="7">
-        <v>93761</v>
+        <v>43483</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="H53" s="7">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="I53" s="7">
-        <v>120668</v>
+        <v>48712</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="M53" s="7">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="N53" s="7">
-        <v>214429</v>
+        <v>92194</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,54 +4322,54 @@
         <v>3</v>
       </c>
       <c r="C54" s="7">
-        <v>529</v>
+        <v>328</v>
       </c>
       <c r="D54" s="7">
-        <v>632780</v>
+        <v>356036</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H54" s="7">
-        <v>596</v>
+        <v>423</v>
       </c>
       <c r="I54" s="7">
-        <v>442413</v>
+        <v>322393</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M54" s="7">
-        <v>1125</v>
+        <v>751</v>
       </c>
       <c r="N54" s="7">
-        <v>1075193</v>
+        <v>678429</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>10</v>
@@ -4468,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4483,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4498,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,49 +4426,49 @@
         <v>16</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>1064</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
       </c>
       <c r="N56" s="7">
-        <v>1064</v>
+        <v>999</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,49 +4477,49 @@
         <v>17</v>
       </c>
       <c r="C57" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D57" s="7">
-        <v>10595</v>
+        <v>26995</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="H57" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I57" s="7">
-        <v>19303</v>
+        <v>26810</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="M57" s="7">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="N57" s="7">
-        <v>29898</v>
+        <v>53805</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,55 +4528,55 @@
         <v>27</v>
       </c>
       <c r="C58" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D58" s="7">
-        <v>3524</v>
+        <v>29191</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="H58" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I58" s="7">
-        <v>7865</v>
+        <v>28905</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M58" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N58" s="7">
-        <v>11388</v>
+        <v>58096</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
@@ -4672,7 +4591,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4687,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4702,13 +4621,13 @@
         <v>12</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -4723,7 +4642,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4738,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4753,28 +4672,28 @@
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>1205</v>
+        <v>168</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4789,481 +4708,481 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>1205</v>
+        <v>168</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>2506</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="M62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" s="7">
-        <v>0</v>
+        <v>3142</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C63" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="7">
-        <v>8079</v>
+        <v>8012</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="H63" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I63" s="7">
-        <v>12446</v>
+        <v>15096</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="M63" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N63" s="7">
-        <v>20525</v>
+        <v>23107</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="H64" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="M64" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N64" s="7">
-        <v>3080</v>
+        <v>164</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="7">
+        <v>35</v>
+      </c>
+      <c r="D65" s="7">
+        <v>37708</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H65" s="7">
         <v>34</v>
       </c>
-      <c r="C65" s="7">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
-        <v>9472</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H65" s="7">
-        <v>11</v>
-      </c>
       <c r="I65" s="7">
-        <v>8667</v>
+        <v>21565</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="M65" s="7">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="N65" s="7">
-        <v>18139</v>
+        <v>59272</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C66" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" s="7">
-        <v>2499</v>
+        <v>2049</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="H66" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I66" s="7">
-        <v>160</v>
+        <v>4311</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="M66" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N66" s="7">
-        <v>2658</v>
+        <v>6360</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>259</v>
+        <v>110</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C67" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D67" s="7">
-        <v>6970</v>
+        <v>32455</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="H67" s="7">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I67" s="7">
-        <v>11625</v>
+        <v>40484</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="M67" s="7">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="N67" s="7">
-        <v>18594</v>
+        <v>72939</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C68" s="7">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D68" s="7">
-        <v>277254</v>
+        <v>259184</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="H68" s="7">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="I68" s="7">
-        <v>204596</v>
+        <v>162189</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="M68" s="7">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="N68" s="7">
-        <v>481850</v>
+        <v>421373</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C69" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D69" s="7">
-        <v>2533</v>
+        <v>11090</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="H69" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I69" s="7">
-        <v>1317</v>
+        <v>75564</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="M69" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N69" s="7">
-        <v>3850</v>
+        <v>86654</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D70" s="7">
-        <v>45081</v>
+        <v>60571</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="H70" s="7">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="I70" s="7">
-        <v>53031</v>
+        <v>104038</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="M70" s="7">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="N70" s="7">
-        <v>98112</v>
+        <v>164608</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,72 +5191,72 @@
         <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>328</v>
+        <v>478</v>
       </c>
       <c r="D71" s="7">
-        <v>367212</v>
+        <v>471091</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H71" s="7">
-        <v>423</v>
+        <v>602</v>
       </c>
       <c r="I71" s="7">
-        <v>323154</v>
+        <v>479597</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M71" s="7">
-        <v>751</v>
+        <v>1080</v>
       </c>
       <c r="N71" s="7">
-        <v>690366</v>
+        <v>950688</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>289</v>
+        <v>3</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5352,22 +5271,22 @@
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="M72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,46 +5298,46 @@
         <v>1</v>
       </c>
       <c r="D73" s="7">
-        <v>1035</v>
+        <v>999</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="H73" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="7">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>142</v>
+        <v>336</v>
       </c>
       <c r="M73" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" s="7">
-        <v>1035</v>
+        <v>1850</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,49 +5346,49 @@
         <v>17</v>
       </c>
       <c r="C74" s="7">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D74" s="7">
-        <v>27574</v>
+        <v>97671</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="H74" s="7">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="I74" s="7">
-        <v>28612</v>
+        <v>114299</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="M74" s="7">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="N74" s="7">
-        <v>56186</v>
+        <v>211970</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>153</v>
+        <v>343</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,106 +5397,106 @@
         <v>27</v>
       </c>
       <c r="C75" s="7">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D75" s="7">
-        <v>34100</v>
+        <v>43015</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="H75" s="7">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I75" s="7">
-        <v>34531</v>
+        <v>48214</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="M75" s="7">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="N75" s="7">
-        <v>68631</v>
+        <v>91230</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="7">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="H76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="7">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="M76" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" s="7">
-        <v>0</v>
+        <v>2635</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C77" s="7">
         <v>0</v>
@@ -5592,58 +5511,58 @@
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="H77" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" s="7">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>142</v>
+        <v>336</v>
       </c>
       <c r="M77" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N77" s="7">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C78" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" s="7">
-        <v>159</v>
+        <v>4043</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -5658,481 +5577,481 @@
         <v>12</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="M78" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N78" s="7">
-        <v>159</v>
+        <v>4043</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
       </c>
       <c r="D79" s="7">
-        <v>2409</v>
+        <v>2506</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
       </c>
       <c r="I79" s="7">
-        <v>751</v>
+        <v>636</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
       </c>
       <c r="N79" s="7">
-        <v>3160</v>
+        <v>3142</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C80" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D80" s="7">
-        <v>8064</v>
+        <v>35566</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="H80" s="7">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I80" s="7">
-        <v>16467</v>
+        <v>35826</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>312</v>
+        <v>159</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="M80" s="7">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="N80" s="7">
-        <v>24531</v>
+        <v>71392</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>95</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="5" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C81" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D81" s="7">
-        <v>160</v>
+        <v>6761</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="H81" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I81" s="7">
-        <v>0</v>
+        <v>4649</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>142</v>
+        <v>360</v>
       </c>
       <c r="M81" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N81" s="7">
-        <v>160</v>
+        <v>11410</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>316</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C82" s="7">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D82" s="7">
-        <v>39889</v>
+        <v>71450</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="H82" s="7">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I82" s="7">
-        <v>23557</v>
+        <v>50729</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="M82" s="7">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="N82" s="7">
-        <v>63445</v>
+        <v>122179</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="5" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C83" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D83" s="7">
-        <v>2115</v>
+        <v>9745</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="H83" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I83" s="7">
-        <v>4629</v>
+        <v>4472</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="M83" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N83" s="7">
-        <v>6743</v>
+        <v>14217</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>330</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="5" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C84" s="7">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D84" s="7">
-        <v>35320</v>
+        <v>46895</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="H84" s="7">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="I84" s="7">
-        <v>45363</v>
+        <v>63967</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>335</v>
+        <v>113</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M84" s="7">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="N84" s="7">
-        <v>80683</v>
+        <v>110861</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C85" s="7">
-        <v>257</v>
+        <v>1074</v>
       </c>
       <c r="D85" s="7">
-        <v>266732</v>
+        <v>1387284</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="H85" s="7">
-        <v>233</v>
+        <v>1000</v>
       </c>
       <c r="I85" s="7">
-        <v>173058</v>
+        <v>724227</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="M85" s="7">
-        <v>490</v>
+        <v>2074</v>
       </c>
       <c r="N85" s="7">
-        <v>439790</v>
+        <v>2111512</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C86" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D86" s="7">
-        <v>12535</v>
+        <v>17257</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="H86" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I86" s="7">
-        <v>21851</v>
+        <v>77693</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="M86" s="7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N86" s="7">
-        <v>34386</v>
+        <v>94950</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="5" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C87" s="7">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="D87" s="7">
-        <v>63718</v>
+        <v>240393</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>133</v>
+        <v>393</v>
       </c>
       <c r="H87" s="7">
-        <v>157</v>
+        <v>508</v>
       </c>
       <c r="I87" s="7">
-        <v>112151</v>
+        <v>333866</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="M87" s="7">
-        <v>221</v>
+        <v>745</v>
       </c>
       <c r="N87" s="7">
-        <v>175868</v>
+        <v>574258</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,931 +6060,61 @@
         <v>3</v>
       </c>
       <c r="C88" s="7">
-        <v>478</v>
+        <v>1673</v>
       </c>
       <c r="D88" s="7">
-        <v>493810</v>
+        <v>1965686</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H88" s="7">
-        <v>602</v>
+        <v>2033</v>
       </c>
       <c r="I88" s="7">
-        <v>460969</v>
+        <v>1460935</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M88" s="7">
-        <v>1080</v>
+        <v>3706</v>
       </c>
       <c r="N88" s="7">
-        <v>954779</v>
+        <v>3426622</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="7">
-        <v>1</v>
-      </c>
-      <c r="D89" s="7">
-        <v>160</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7">
-        <v>0</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M89" s="7">
-        <v>1</v>
-      </c>
-      <c r="N89" s="7">
-        <v>160</v>
-      </c>
-      <c r="O89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="7">
-        <v>1</v>
-      </c>
-      <c r="D90" s="7">
-        <v>1035</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H90" s="7">
-        <v>1</v>
-      </c>
-      <c r="I90" s="7">
-        <v>1064</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M90" s="7">
-        <v>2</v>
-      </c>
-      <c r="N90" s="7">
-        <v>2100</v>
-      </c>
-      <c r="O90" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="7">
-        <v>116</v>
-      </c>
-      <c r="D91" s="7">
-        <v>101139</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H91" s="7">
-        <v>201</v>
-      </c>
-      <c r="I91" s="7">
-        <v>123478</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="M91" s="7">
-        <v>317</v>
-      </c>
-      <c r="N91" s="7">
-        <v>224616</v>
-      </c>
-      <c r="O91" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="P91" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q91" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="7">
-        <v>46</v>
-      </c>
-      <c r="D92" s="7">
-        <v>49523</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H92" s="7">
-        <v>67</v>
-      </c>
-      <c r="I92" s="7">
-        <v>57642</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M92" s="7">
-        <v>113</v>
-      </c>
-      <c r="N92" s="7">
-        <v>107165</v>
-      </c>
-      <c r="O92" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q92" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="7">
-        <v>1</v>
-      </c>
-      <c r="D93" s="7">
-        <v>1821</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H93" s="7">
-        <v>1</v>
-      </c>
-      <c r="I93" s="7">
-        <v>808</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M93" s="7">
-        <v>2</v>
-      </c>
-      <c r="N93" s="7">
-        <v>2630</v>
-      </c>
-      <c r="O93" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q93" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="7">
-        <v>0</v>
-      </c>
-      <c r="D94" s="7">
-        <v>0</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H94" s="7">
-        <v>2</v>
-      </c>
-      <c r="I94" s="7">
-        <v>841</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M94" s="7">
-        <v>2</v>
-      </c>
-      <c r="N94" s="7">
-        <v>841</v>
-      </c>
-      <c r="O94" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q94" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" s="7">
-        <v>5</v>
-      </c>
-      <c r="D95" s="7">
-        <v>3993</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H95" s="7">
-        <v>0</v>
-      </c>
-      <c r="I95" s="7">
-        <v>0</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L95" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M95" s="7">
-        <v>5</v>
-      </c>
-      <c r="N95" s="7">
-        <v>3993</v>
-      </c>
-      <c r="O95" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="P95" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q95" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C96" s="7">
-        <v>1</v>
-      </c>
-      <c r="D96" s="7">
-        <v>2409</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H96" s="7">
-        <v>1</v>
-      </c>
-      <c r="I96" s="7">
-        <v>751</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M96" s="7">
-        <v>2</v>
-      </c>
-      <c r="N96" s="7">
-        <v>3160</v>
-      </c>
-      <c r="O96" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P96" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q96" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C97" s="7">
-        <v>34</v>
-      </c>
-      <c r="D97" s="7">
-        <v>39299</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H97" s="7">
-        <v>49</v>
-      </c>
-      <c r="I97" s="7">
-        <v>40353</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M97" s="7">
-        <v>83</v>
-      </c>
-      <c r="N97" s="7">
-        <v>79652</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="P97" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q97" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="7">
-        <v>6</v>
-      </c>
-      <c r="D98" s="7">
-        <v>6725</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H98" s="7">
-        <v>5</v>
-      </c>
-      <c r="I98" s="7">
-        <v>4974</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M98" s="7">
-        <v>11</v>
-      </c>
-      <c r="N98" s="7">
-        <v>11699</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P98" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q98" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" s="7">
-        <v>67</v>
-      </c>
-      <c r="D99" s="7">
-        <v>74390</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H99" s="7">
-        <v>81</v>
-      </c>
-      <c r="I99" s="7">
-        <v>55735</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M99" s="7">
-        <v>148</v>
-      </c>
-      <c r="N99" s="7">
-        <v>130125</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P99" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q99" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C100" s="7">
-        <v>12</v>
-      </c>
-      <c r="D100" s="7">
-        <v>10126</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H100" s="7">
-        <v>7</v>
-      </c>
-      <c r="I100" s="7">
-        <v>4788</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M100" s="7">
-        <v>19</v>
-      </c>
-      <c r="N100" s="7">
-        <v>14914</v>
-      </c>
-      <c r="O100" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P100" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q100" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" s="7">
-        <v>51</v>
-      </c>
-      <c r="D101" s="7">
-        <v>51782</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G101" s="7" t="s">
+      <c r="A89" t="s">
         <v>400</v>
       </c>
-      <c r="H101" s="7">
-        <v>91</v>
-      </c>
-      <c r="I101" s="7">
-        <v>72255</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="M101" s="7">
-        <v>142</v>
-      </c>
-      <c r="N101" s="7">
-        <v>124036</v>
-      </c>
-      <c r="O101" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P101" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q101" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C102" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D102" s="7">
-        <v>1222010</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H102" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I102" s="7">
-        <v>751058</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M102" s="7">
-        <v>2074</v>
-      </c>
-      <c r="N102" s="7">
-        <v>1973067</v>
-      </c>
-      <c r="O102" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P102" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q102" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103" s="7">
-        <v>21</v>
-      </c>
-      <c r="D103" s="7">
-        <v>19253</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H103" s="7">
-        <v>19</v>
-      </c>
-      <c r="I103" s="7">
-        <v>24112</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L103" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M103" s="7">
-        <v>40</v>
-      </c>
-      <c r="N103" s="7">
-        <v>43365</v>
-      </c>
-      <c r="O103" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P103" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q103" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C104" s="7">
-        <v>237</v>
-      </c>
-      <c r="D104" s="7">
-        <v>253631</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H104" s="7">
-        <v>508</v>
-      </c>
-      <c r="I104" s="7">
-        <v>363393</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L104" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M104" s="7">
-        <v>745</v>
-      </c>
-      <c r="N104" s="7">
-        <v>617024</v>
-      </c>
-      <c r="O104" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P104" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q104" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="7">
-        <v>1673</v>
-      </c>
-      <c r="D105" s="7">
-        <v>1837295</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H105" s="7">
-        <v>2033</v>
-      </c>
-      <c r="I105" s="7">
-        <v>1501253</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M105" s="7">
-        <v>3706</v>
-      </c>
-      <c r="N105" s="7">
-        <v>3338548</v>
-      </c>
-      <c r="O105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q105" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>427</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A38:A54"/>
     <mergeCell ref="A55:A71"/>
     <mergeCell ref="A72:A88"/>
-    <mergeCell ref="A89:A105"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
